--- a/artfynd/A 17092-2022.xlsx
+++ b/artfynd/A 17092-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111354809</v>
+        <v>111355391</v>
       </c>
       <c r="B2" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>555164.2519777509</v>
+        <v>555215.2391852245</v>
       </c>
       <c r="R2" t="n">
-        <v>6999120.809599082</v>
+        <v>6999054.684715276</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -767,11 +767,6 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>19:06</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -798,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111355391</v>
+        <v>111354696</v>
       </c>
       <c r="B3" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -810,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -839,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>555215.2391852245</v>
+        <v>555138.3841980774</v>
       </c>
       <c r="R3" t="n">
-        <v>6999054.684715276</v>
+        <v>6999122.632572887</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -874,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>19:06</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -884,7 +879,12 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>19:06</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -1024,7 +1024,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111355227</v>
+        <v>111355254</v>
       </c>
       <c r="B5" t="n">
         <v>78578</v>
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>555268.7908350837</v>
+        <v>555272.5859257083</v>
       </c>
       <c r="R5" t="n">
-        <v>6999024.363821026</v>
+        <v>6999014.46986856</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111355331</v>
+        <v>111355227</v>
       </c>
       <c r="B6" t="n">
         <v>78578</v>
@@ -1178,10 +1178,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>555224.1634512447</v>
+        <v>555268.7908350837</v>
       </c>
       <c r="R6" t="n">
-        <v>6999062.984709017</v>
+        <v>6999024.363821026</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1250,7 +1250,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111355135</v>
+        <v>111354189</v>
       </c>
       <c r="B7" t="n">
         <v>78578</v>
@@ -1291,10 +1291,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>555276.0359517796</v>
+        <v>555134.7763198819</v>
       </c>
       <c r="R7" t="n">
-        <v>6998998.232622715</v>
+        <v>6999254.742998262</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>19:06</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>19:06</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1363,10 +1363,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111354025</v>
+        <v>111355331</v>
       </c>
       <c r="B8" t="n">
-        <v>89405</v>
+        <v>78578</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1379,21 +1379,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1404,10 +1404,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>555154.7369911602</v>
+        <v>555224.1634512447</v>
       </c>
       <c r="R8" t="n">
-        <v>6999253.724818715</v>
+        <v>6999062.984709017</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:06</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:06</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1476,10 +1476,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111354696</v>
+        <v>111355135</v>
       </c>
       <c r="B9" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1488,25 +1488,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1517,10 +1517,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>555138.3841980774</v>
+        <v>555276.0359517796</v>
       </c>
       <c r="R9" t="n">
-        <v>6999122.632572887</v>
+        <v>6998998.232622715</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1552,7 +1552,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:06</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1562,12 +1562,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
+          <t>19:06</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1594,10 +1589,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111354189</v>
+        <v>111354809</v>
       </c>
       <c r="B10" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1606,25 +1601,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1635,10 +1630,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>555134.7763198819</v>
+        <v>555164.2519777509</v>
       </c>
       <c r="R10" t="n">
-        <v>6999254.742998262</v>
+        <v>6999120.809599082</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1670,7 +1665,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:06</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1680,7 +1675,12 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:06</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1707,10 +1707,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111354546</v>
+        <v>111354025</v>
       </c>
       <c r="B11" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1723,21 +1723,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1748,10 +1748,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>555144.7642560177</v>
+        <v>555154.7369911602</v>
       </c>
       <c r="R11" t="n">
-        <v>6999173.89047078</v>
+        <v>6999253.724818715</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1794,11 +1794,6 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1825,10 +1820,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111355254</v>
+        <v>111354546</v>
       </c>
       <c r="B12" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1841,21 +1836,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1866,10 +1861,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>555272.5859257083</v>
+        <v>555144.7642560177</v>
       </c>
       <c r="R12" t="n">
-        <v>6999014.46986856</v>
+        <v>6999173.89047078</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1901,7 +1896,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>19:06</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1911,7 +1906,12 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>19:06</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD12" t="b">

--- a/artfynd/A 17092-2022.xlsx
+++ b/artfynd/A 17092-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111355391</v>
+        <v>111354726</v>
       </c>
       <c r="B2" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>555215.2391852245</v>
+        <v>555138.3841980774</v>
       </c>
       <c r="R2" t="n">
-        <v>6999054.684715276</v>
+        <v>6999122.632572887</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>19:06</t>
+          <t>18:59</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,12 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>19:06</t>
+          <t>18:59</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +798,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111354696</v>
+        <v>111354546</v>
       </c>
       <c r="B3" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +810,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +839,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>555138.3841980774</v>
+        <v>555144.7642560177</v>
       </c>
       <c r="R3" t="n">
-        <v>6999122.632572887</v>
+        <v>6999173.89047078</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -911,10 +916,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111355282</v>
+        <v>111354025</v>
       </c>
       <c r="B4" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -927,21 +932,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +957,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>555252.2533465028</v>
+        <v>555154.7369911602</v>
       </c>
       <c r="R4" t="n">
-        <v>6999037.209103072</v>
+        <v>6999253.724818715</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -987,7 +992,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>19:06</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -997,7 +1002,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>19:06</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1024,7 +1029,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111355254</v>
+        <v>111355331</v>
       </c>
       <c r="B5" t="n">
         <v>78578</v>
@@ -1065,10 +1070,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>555272.5859257083</v>
+        <v>555224.1634512447</v>
       </c>
       <c r="R5" t="n">
-        <v>6999014.46986856</v>
+        <v>6999062.984709017</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1137,7 +1142,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111355227</v>
+        <v>111355391</v>
       </c>
       <c r="B6" t="n">
         <v>78578</v>
@@ -1178,10 +1183,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>555268.7908350837</v>
+        <v>555215.2391852245</v>
       </c>
       <c r="R6" t="n">
-        <v>6999024.363821026</v>
+        <v>6999054.684715276</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1250,10 +1255,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111354189</v>
+        <v>111354809</v>
       </c>
       <c r="B7" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1262,25 +1267,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1291,10 +1296,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>555134.7763198819</v>
+        <v>555164.2519777509</v>
       </c>
       <c r="R7" t="n">
-        <v>6999254.742998262</v>
+        <v>6999120.809599082</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1326,7 +1331,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:06</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1336,7 +1341,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:06</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1363,7 +1373,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111355331</v>
+        <v>111355282</v>
       </c>
       <c r="B8" t="n">
         <v>78578</v>
@@ -1404,10 +1414,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>555224.1634512447</v>
+        <v>555252.2533465028</v>
       </c>
       <c r="R8" t="n">
-        <v>6999062.984709017</v>
+        <v>6999037.209103072</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1589,10 +1599,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111354809</v>
+        <v>111355197</v>
       </c>
       <c r="B10" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1601,25 +1611,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1630,10 +1640,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>555164.2519777509</v>
+        <v>555280.6270040129</v>
       </c>
       <c r="R10" t="n">
-        <v>6999120.809599082</v>
+        <v>6999021.397055306</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1676,11 +1686,6 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>19:06</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1707,10 +1712,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111354025</v>
+        <v>111355254</v>
       </c>
       <c r="B11" t="n">
-        <v>89405</v>
+        <v>78578</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1723,21 +1728,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1748,10 +1753,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>555154.7369911602</v>
+        <v>555272.5859257083</v>
       </c>
       <c r="R11" t="n">
-        <v>6999253.724818715</v>
+        <v>6999014.46986856</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1783,7 +1788,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:06</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1793,7 +1798,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:06</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1820,10 +1825,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111354546</v>
+        <v>111355227</v>
       </c>
       <c r="B12" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1836,21 +1841,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1861,10 +1866,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>555144.7642560177</v>
+        <v>555268.7908350837</v>
       </c>
       <c r="R12" t="n">
-        <v>6999173.89047078</v>
+        <v>6999024.363821026</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1896,7 +1901,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:06</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1906,12 +1911,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
+          <t>19:06</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1938,7 +1938,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111355197</v>
+        <v>111354189</v>
       </c>
       <c r="B13" t="n">
         <v>78578</v>
@@ -1979,10 +1979,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>555280.6270040129</v>
+        <v>555134.7763198819</v>
       </c>
       <c r="R13" t="n">
-        <v>6999021.397055306</v>
+        <v>6999254.742998262</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2014,7 +2014,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>19:06</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2024,7 +2024,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>19:06</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD13" t="b">

--- a/artfynd/A 17092-2022.xlsx
+++ b/artfynd/A 17092-2022.xlsx
@@ -798,10 +798,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111354546</v>
+        <v>111355254</v>
       </c>
       <c r="B3" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -814,21 +814,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>555144.7642560177</v>
+        <v>555272.5859257083</v>
       </c>
       <c r="R3" t="n">
-        <v>6999173.89047078</v>
+        <v>6999014.46986856</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -874,7 +874,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:06</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -884,12 +884,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
+          <t>19:06</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -916,10 +911,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111354025</v>
+        <v>111354809</v>
       </c>
       <c r="B4" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -928,25 +923,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -957,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>555154.7369911602</v>
+        <v>555164.2519777509</v>
       </c>
       <c r="R4" t="n">
-        <v>6999253.724818715</v>
+        <v>6999120.809599082</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -992,7 +987,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:06</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1002,7 +997,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:06</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1029,7 +1029,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111355331</v>
+        <v>111354189</v>
       </c>
       <c r="B5" t="n">
         <v>78578</v>
@@ -1070,10 +1070,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>555224.1634512447</v>
+        <v>555134.7763198819</v>
       </c>
       <c r="R5" t="n">
-        <v>6999062.984709017</v>
+        <v>6999254.742998262</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>19:06</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>19:06</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1142,7 +1142,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111355391</v>
+        <v>111355135</v>
       </c>
       <c r="B6" t="n">
         <v>78578</v>
@@ -1183,10 +1183,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>555215.2391852245</v>
+        <v>555276.0359517796</v>
       </c>
       <c r="R6" t="n">
-        <v>6999054.684715276</v>
+        <v>6998998.232622715</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1255,10 +1255,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111354809</v>
+        <v>111355227</v>
       </c>
       <c r="B7" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1267,25 +1267,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1296,10 +1296,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>555164.2519777509</v>
+        <v>555268.7908350837</v>
       </c>
       <c r="R7" t="n">
-        <v>6999120.809599082</v>
+        <v>6999024.363821026</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1342,11 +1342,6 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>19:06</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1373,7 +1368,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111355282</v>
+        <v>111355197</v>
       </c>
       <c r="B8" t="n">
         <v>78578</v>
@@ -1414,10 +1409,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>555252.2533465028</v>
+        <v>555280.6270040129</v>
       </c>
       <c r="R8" t="n">
-        <v>6999037.209103072</v>
+        <v>6999021.397055306</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1486,7 +1481,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111355135</v>
+        <v>111355282</v>
       </c>
       <c r="B9" t="n">
         <v>78578</v>
@@ -1527,10 +1522,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>555276.0359517796</v>
+        <v>555252.2533465028</v>
       </c>
       <c r="R9" t="n">
-        <v>6998998.232622715</v>
+        <v>6999037.209103072</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1599,7 +1594,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111355197</v>
+        <v>111355331</v>
       </c>
       <c r="B10" t="n">
         <v>78578</v>
@@ -1640,10 +1635,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>555280.6270040129</v>
+        <v>555224.1634512447</v>
       </c>
       <c r="R10" t="n">
-        <v>6999021.397055306</v>
+        <v>6999062.984709017</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1712,10 +1707,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111355254</v>
+        <v>111354546</v>
       </c>
       <c r="B11" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1728,21 +1723,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1753,10 +1748,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>555272.5859257083</v>
+        <v>555144.7642560177</v>
       </c>
       <c r="R11" t="n">
-        <v>6999014.46986856</v>
+        <v>6999173.89047078</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1788,7 +1783,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>19:06</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1798,7 +1793,12 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>19:06</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1825,7 +1825,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111355227</v>
+        <v>111355391</v>
       </c>
       <c r="B12" t="n">
         <v>78578</v>
@@ -1866,10 +1866,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>555268.7908350837</v>
+        <v>555215.2391852245</v>
       </c>
       <c r="R12" t="n">
-        <v>6999024.363821026</v>
+        <v>6999054.684715276</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1938,10 +1938,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111354189</v>
+        <v>111354025</v>
       </c>
       <c r="B13" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1954,21 +1954,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1979,10 +1979,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>555134.7763198819</v>
+        <v>555154.7369911602</v>
       </c>
       <c r="R13" t="n">
-        <v>6999254.742998262</v>
+        <v>6999253.724818715</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>

--- a/artfynd/A 17092-2022.xlsx
+++ b/artfynd/A 17092-2022.xlsx
@@ -1029,7 +1029,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111354189</v>
+        <v>111355135</v>
       </c>
       <c r="B5" t="n">
         <v>78578</v>
@@ -1070,10 +1070,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>555134.7763198819</v>
+        <v>555276.0359517796</v>
       </c>
       <c r="R5" t="n">
-        <v>6999254.742998262</v>
+        <v>6998998.232622715</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:06</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:06</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1142,7 +1142,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111355135</v>
+        <v>111354189</v>
       </c>
       <c r="B6" t="n">
         <v>78578</v>
@@ -1183,10 +1183,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>555276.0359517796</v>
+        <v>555134.7763198819</v>
       </c>
       <c r="R6" t="n">
-        <v>6998998.232622715</v>
+        <v>6999254.742998262</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>19:06</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>19:06</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
